--- a/data/trans_bre/P07B_R2_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R2_2023-Estudios-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.00139880775768</v>
+        <v>-10.14681644466728</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1106350808526637</v>
+        <v>-0.1117707830187287</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.610170376316379</v>
+        <v>-3.782382084013757</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-0.0411952459324408</v>
+        <v>-0.0438117052743934</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>-2.715688360983193</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.02855910579977481</v>
+        <v>-0.02855910579977482</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.216407785472292</v>
+        <v>-4.144512549712407</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04402824001642737</v>
+        <v>-0.04342464526914566</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-1.274613583803281</v>
+        <v>-1.318914996585476</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.01353245055194427</v>
+        <v>-0.01404247961924711</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5456420130449335</v>
+        <v>0.5456420130449446</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.005806714964253619</v>
+        <v>0.005806714964253738</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.088576124911906</v>
+        <v>-1.848187584671833</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.02186241629084204</v>
+        <v>-0.01956549387556273</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.002186999594579</v>
+        <v>3.437790589596705</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.03270625512079276</v>
+        <v>0.03731539295561048</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-3.390330259606045</v>
+        <v>-3.390330259606078</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.03616333792979325</v>
+        <v>-0.03616333792979359</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.627501590757928</v>
+        <v>-4.658772408732951</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04902857585926128</v>
+        <v>-0.0495358713700728</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-2.249385733308103</v>
+        <v>-2.121047303518438</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02407588040747061</v>
+        <v>-0.02285961811138152</v>
       </c>
     </row>
     <row r="16">
